--- a/Documentation/shoping list.xlsx
+++ b/Documentation/shoping list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1f346a5d03b2093/Desktop/2n q/Integrated Project II/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1f346a5d03b2093/Desktop/2n q/Integrated Project II/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E757975D-8D9E-4E36-AE74-A095C93F7A09}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CB13D9-6E4F-4F88-B385-3F0B89F639C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Link</t>
   </si>
@@ -57,9 +57,6 @@
     <t>https://www.alacermas.com/es/producto/tubos-cuadrados-extruidos-de-aluminio</t>
   </si>
   <si>
-    <t xml:space="preserve">5,5+ IVA consideratn un 21% </t>
-  </si>
-  <si>
     <t>Reviwed</t>
   </si>
   <si>
@@ -103,6 +100,42 @@
   </si>
   <si>
     <t>https://www.amazon.es/dp/B0CJJCG4B2/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0CJJCG4B2&amp;pd_rd_w=B46YE&amp;content-id=amzn1.sym.0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_p=0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_r=M1F5KSCC69AW78BZWX7E&amp;pd_rd_wg=Gb1er&amp;pd_rd_r=de0751c4-9497-4b47-bd2f-adb5a478cd4e&amp;aref=WCCGjsiMEK&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw</t>
+  </si>
+  <si>
+    <t>cable green</t>
+  </si>
+  <si>
+    <t>cable black</t>
+  </si>
+  <si>
+    <t>cable blue</t>
+  </si>
+  <si>
+    <t>cable yellow</t>
+  </si>
+  <si>
+    <t>3d printer material</t>
+  </si>
+  <si>
+    <t>son el 50x50 mm amb el gruix de 2mm</t>
+  </si>
+  <si>
+    <t>the material available at the university will be sufficient</t>
+  </si>
+  <si>
+    <t>cablejat arduino</t>
+  </si>
+  <si>
+    <t>batery</t>
+  </si>
+  <si>
+    <t>convertor</t>
+  </si>
+  <si>
+    <t>voltatge sortida 3V3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cable red </t>
   </si>
 </sst>
 </file>
@@ -145,12 +178,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +189,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +261,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,14 +276,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -290,10 +325,6 @@
     </a>
   </bag>
 </FeaturePropertyBags>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,252 +656,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>6.56</v>
+      </c>
+      <c r="K2">
+        <f>J2*C2</f>
+        <v>39.36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="C3" s="7">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>8.81</v>
+      </c>
+      <c r="K3">
+        <f>J3*C3</f>
+        <v>44.050000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="K4" s="18">
+        <f>J4*C4</f>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>25.66</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" ref="K5:K16" si="0">J5*C5</f>
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="15"/>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6.56</v>
-      </c>
-      <c r="J2">
-        <f>I2*B2</f>
-        <v>39.36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>8.81</v>
-      </c>
-      <c r="J3">
-        <f>I3*B3</f>
-        <v>44.050000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20">
-        <v>8.9</v>
-      </c>
-      <c r="J4" s="20">
-        <f>I4*B4</f>
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>25.66</v>
-      </c>
-      <c r="J5" s="20">
-        <f t="shared" ref="J5:J13" si="0">I5*B5</f>
-        <v>25.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="19"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="D14" s="5"/>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <f>SUM(J2:J13)</f>
+      <c r="K18">
+        <f>SUM(K2:K16)</f>
         <v>117.97</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="https://www.amazon.es/dp/B0CJJCG4B2/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0CJJCG4B2&amp;pd_rd_w=B46YE&amp;content-id=amzn1.sym.0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_p=0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_r=M1F5KSCC69AW78BZWX7E&amp;pd_rd_wg=Gb1er&amp;pd_rd_r=de0751c4-9497-4b47-bd2f-adb5a478cd4e&amp;aref=WCCGjsiMEK&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{177371BD-60DB-483F-9CD3-17AF328B2782}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{13B205C7-147D-4CAC-B774-941552993FAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd51b8d8-854a-43d6-880d-b6b77f32b788">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c10677f-6caa-42d0-ab88-ccd0fc439109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006A18F727D487E3458BEB83107A885507" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c51b25c804de421720b8556b8e14123">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd51b8d8-854a-43d6-880d-b6b77f32b788" xmlns:ns3="7c10677f-6caa-42d0-ab88-ccd0fc439109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3827fe04451c7e57ff13fe98dce623bc" ns2:_="" ns3:_="">
     <xsd:import namespace="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
@@ -1099,27 +1386,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD796091-A6EF-48AE-B341-7B4327547113}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
+    <ds:schemaRef ds:uri="7c10677f-6caa-42d0-ab88-ccd0fc439109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd51b8d8-854a-43d6-880d-b6b77f32b788">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c10677f-6caa-42d0-ab88-ccd0fc439109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC11E23-063D-4A0F-89B0-37CAE12071D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F480205-980C-4BCC-9F2D-B8853D45A763}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1136,23 +1422,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC11E23-063D-4A0F-89B0-37CAE12071D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD796091-A6EF-48AE-B341-7B4327547113}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
-    <ds:schemaRef ds:uri="7c10677f-6caa-42d0-ab88-ccd0fc439109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/shoping list.xlsx
+++ b/Documentation/shoping list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1f346a5d03b2093/Desktop/2n q/Integrated Project II/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25CB13D9-6E4F-4F88-B385-3F0B89F639C4}"/>
+  <xr:revisionPtr revIDLastSave="249" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A5E1F8-FF95-4442-A63D-320621CFB0A3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Link</t>
   </si>
@@ -126,23 +126,44 @@
     <t>cablejat arduino</t>
   </si>
   <si>
-    <t>batery</t>
-  </si>
-  <si>
-    <t>convertor</t>
-  </si>
-  <si>
-    <t>voltatge sortida 3V3</t>
-  </si>
-  <si>
     <t xml:space="preserve">cable red </t>
+  </si>
+  <si>
+    <t>femella M8 85mm</t>
+  </si>
+  <si>
+    <t>Cargols M8 85mm</t>
+  </si>
+  <si>
+    <t>https://www.tornillos-express.es/tuerca-hexagonal-clase-clase-88-iso-4032-nfe-24032-iso-4032vs-iso4032vs4325/36292-617962-tuerca-hexagonal-m8-clase-8-acero-cincado-blanco-3663072087903.html?utm_campaign=googleads&amp;utm_source=shopping&amp;utm_medium=espagne&amp;gad_source=1&amp;gad_campaignid=19022351003&amp;gbraid=0AAAAApCivz6dHd2o9ejHbDoXMnosNoKJ6&amp;gclid=CjwKCAiA-__MBhAKEiwASBmsBNoD5PrjyQ96KwgL7XtxX3oPs07ehlaPK3VmQxj1SBDd34yOyenwOBoCR0AQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.tornillos-express.es/tornillo-metales-cabeza-hexagonal-th-109-iso-4017/43047-632626-tornillo-metales-cabeza-hexagonal-m8x80-clase-109-acero-cincado-blanco-3663072192089.html?utm_campaign=googleads&amp;utm_source=shopping&amp;utm_medium=espagne&amp;gad_source=1&amp;gad_campaignid=19022351003&amp;gbraid=0AAAAApCivz6dHd2o9ejHbDoXMnosNoKJ6&amp;gclid=CjwKCAiA-__MBhAKEiwASBmsBErxRNCimA-naKwgQeOiBRyDUxktBG1afckTqvigwF5F7Ry69lXykxoCKEgQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://es.rs-online.com/web/p/fuentes-de-alimentacion-conmutadas/1358955</t>
+  </si>
+  <si>
+    <t>convertor (230 a 5v)</t>
+  </si>
+  <si>
+    <t>convertor (5 a 3,3v)</t>
+  </si>
+  <si>
+    <t>https://www.electromaker.io/shop/product/dc-dc-multi-output-buck-converter-33v5v9v12v</t>
+  </si>
+  <si>
+    <t>en el paquet van 100, necessitem 20, o els que tingueu a la universitat que facin 85mm o més</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en el paquet van 100, necessitem 20, o els que tingueu a la universitat </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +220,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -227,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -287,6 +314,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -325,6 +361,10 @@
     </a>
   </bag>
 </FeaturePropertyBags>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,11 +696,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K18"/>
+  <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +710,7 @@
     <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -823,7 +863,7 @@
         <v>25.66</v>
       </c>
       <c r="K5" s="18">
-        <f t="shared" ref="K5:K16" si="0">J5*C5</f>
+        <f t="shared" ref="K5:K18" si="0">J5*C5</f>
         <v>25.66</v>
       </c>
     </row>
@@ -838,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>0</v>
@@ -856,7 +896,7 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -865,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>0</v>
@@ -893,7 +933,7 @@
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>0</v>
@@ -993,7 +1033,7 @@
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>0</v>
@@ -1021,7 +1061,7 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>0</v>
@@ -1037,9 +1077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
-        <v>29</v>
+    <row r="14" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -1047,7 +1087,9 @@
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
@@ -1056,15 +1098,18 @@
       </c>
       <c r="H14" s="1" t="b">
         <v>0</v>
+      </c>
+      <c r="J14" s="23">
+        <v>19</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="19" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1072,7 +1117,9 @@
       <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="1" t="b">
         <v>0</v>
       </c>
@@ -1082,52 +1129,119 @@
       <c r="H15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>31</v>
+      <c r="J15" s="18">
+        <v>5.3</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="K16" s="18">
+        <f>J16</f>
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>1.33</v>
+      </c>
+      <c r="K17" s="18">
+        <f>J17</f>
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K18" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="10:11" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
         <v>12</v>
       </c>
-      <c r="K18">
-        <f>SUM(K2:K16)</f>
-        <v>117.97</v>
+      <c r="K20">
+        <f>SUM(K2:K18)</f>
+        <v>161.93000000000004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://www.amazon.es/dp/B0CJJCG4B2/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0CJJCG4B2&amp;pd_rd_w=B46YE&amp;content-id=amzn1.sym.0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_p=0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_r=M1F5KSCC69AW78BZWX7E&amp;pd_rd_wg=Gb1er&amp;pd_rd_r=de0751c4-9497-4b47-bd2f-adb5a478cd4e&amp;aref=WCCGjsiMEK&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{177371BD-60DB-483F-9CD3-17AF328B2782}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{13B205C7-147D-4CAC-B774-941552993FAE}"/>
@@ -1138,26 +1252,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd51b8d8-854a-43d6-880d-b6b77f32b788">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7c10677f-6caa-42d0-ab88-ccd0fc439109" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101006A18F727D487E3458BEB83107A885507" ma:contentTypeVersion="14" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="4c51b25c804de421720b8556b8e14123">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bd51b8d8-854a-43d6-880d-b6b77f32b788" xmlns:ns3="7c10677f-6caa-42d0-ab88-ccd0fc439109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3827fe04451c7e57ff13fe98dce623bc" ns2:_="" ns3:_="">
     <xsd:import namespace="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
@@ -1386,26 +1480,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD796091-A6EF-48AE-B341-7B4327547113}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
-    <ds:schemaRef ds:uri="7c10677f-6caa-42d0-ab88-ccd0fc439109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC11E23-063D-4A0F-89B0-37CAE12071D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd51b8d8-854a-43d6-880d-b6b77f32b788">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7c10677f-6caa-42d0-ab88-ccd0fc439109" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F480205-980C-4BCC-9F2D-B8853D45A763}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1422,4 +1517,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BC11E23-063D-4A0F-89B0-37CAE12071D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD796091-A6EF-48AE-B341-7B4327547113}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd51b8d8-854a-43d6-880d-b6b77f32b788"/>
+    <ds:schemaRef ds:uri="7c10677f-6caa-42d0-ab88-ccd0fc439109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/shoping list.xlsx
+++ b/Documentation/shoping list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d1f346a5d03b2093/Desktop/2n q/Integrated Project II/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25A5E1F8-FF95-4442-A63D-320621CFB0A3}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="8_{D10D4949-50ED-4855-8603-84DE0F12D1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D05480BD-32DB-4B4B-BD1F-11B2724E04E9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="2496" windowWidth="17280" windowHeight="9216" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full1" sheetId="2" state="hidden" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>Link</t>
   </si>
@@ -141,22 +141,28 @@
     <t>https://www.tornillos-express.es/tornillo-metales-cabeza-hexagonal-th-109-iso-4017/43047-632626-tornillo-metales-cabeza-hexagonal-m8x80-clase-109-acero-cincado-blanco-3663072192089.html?utm_campaign=googleads&amp;utm_source=shopping&amp;utm_medium=espagne&amp;gad_source=1&amp;gad_campaignid=19022351003&amp;gbraid=0AAAAApCivz6dHd2o9ejHbDoXMnosNoKJ6&amp;gclid=CjwKCAiA-__MBhAKEiwASBmsBErxRNCimA-naKwgQeOiBRyDUxktBG1afckTqvigwF5F7Ry69lXykxoCKEgQAvD_BwE</t>
   </si>
   <si>
-    <t>https://es.rs-online.com/web/p/fuentes-de-alimentacion-conmutadas/1358955</t>
-  </si>
-  <si>
     <t>convertor (230 a 5v)</t>
   </si>
   <si>
-    <t>convertor (5 a 3,3v)</t>
-  </si>
-  <si>
-    <t>https://www.electromaker.io/shop/product/dc-dc-multi-output-buck-converter-33v5v9v12v</t>
-  </si>
-  <si>
     <t>en el paquet van 100, necessitem 20, o els que tingueu a la universitat que facin 85mm o més</t>
   </si>
   <si>
     <t xml:space="preserve">en el paquet van 100, necessitem 20, o els que tingueu a la universitat </t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Adaptador-Compatible-AirPods-Corriente-Cargador/dp/B09GLWJX5F/ref=pd_ci_mcx_pspc_dp_d_2_t_1?pd_rd_w=opUga&amp;content-id=amzn1.sym.e626c441-8467-44d6-8806-21dd0b2953aa%3Aamzn1.symc.c59cde4b-9905-4aee-9458-457a917a96ac&amp;pf_rd_p=e626c441-8467-44d6-8806-21dd0b2953aa&amp;pf_rd_r=16F3FGV73197XHB4D1S7&amp;pd_rd_wg=3hn2j&amp;pd_rd_r=b4add486-1456-4a2e-ab54-e6813166db65&amp;pd_rd_i=B09GLWJX5F&amp;th=1</t>
+  </si>
+  <si>
+    <t>regulator  (5 a 3,3v)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.es/Convertidor-ajustable-reductor-regulador-voltaje/dp/B0D9HSRQSB/ref=sr_1_3?__mk_es_ES=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=2CQH0VJNUNTZ61</t>
+  </si>
+  <si>
+    <t>connexio d'endoll normal al convertidor</t>
+  </si>
+  <si>
+    <t>converteix a 3,3 v per alimentar sensors i esp32 (consumeix en total max, 700mA, normalment 500)</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <extLst>
@@ -314,12 +320,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -700,7 +700,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +710,7 @@
     <col min="4" max="4" width="9.33203125" style="7" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1078,8 +1078,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="21" t="s">
-        <v>35</v>
+      <c r="B14" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C14" s="9">
         <v>1</v>
@@ -1087,11 +1087,11 @@
       <c r="D14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>34</v>
+      <c r="E14" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="b">
         <v>0</v>
@@ -1099,17 +1099,20 @@
       <c r="H14" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="J14" s="23">
-        <v>19</v>
+      <c r="I14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="21">
+        <v>9.99</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>36</v>
+      <c r="B15" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="9">
         <v>1</v>
@@ -1117,11 +1120,11 @@
       <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>37</v>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="b">
         <v>0</v>
@@ -1129,15 +1132,18 @@
       <c r="H15" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="s">
+        <v>41</v>
+      </c>
       <c r="J15" s="18">
-        <v>5.3</v>
+        <v>11.99</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="0"/>
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>31</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="b">
         <v>0</v>
@@ -1160,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J16">
         <v>18.329999999999998</v>
@@ -1184,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="F17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="b">
         <v>0</v>
@@ -1193,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J17">
         <v>1.33</v>
@@ -1215,7 +1221,7 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="b">
         <v>0</v>
@@ -1237,7 +1243,7 @@
       </c>
       <c r="K20">
         <f>SUM(K2:K18)</f>
-        <v>161.93000000000004</v>
+        <v>159.60999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1245,9 +1251,11 @@
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="https://www.amazon.es/dp/B0CJJCG4B2/ref=sspa_dk_detail_3?psc=1&amp;pd_rd_i=B0CJJCG4B2&amp;pd_rd_w=B46YE&amp;content-id=amzn1.sym.0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_p=0c640cbd-b6e0-461d-8cfc-a8934b5122df&amp;pf_rd_r=M1F5KSCC69AW78BZWX7E&amp;pd_rd_wg=Gb1er&amp;pd_rd_r=de0751c4-9497-4b47-bd2f-adb5a478cd4e&amp;aref=WCCGjsiMEK&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{177371BD-60DB-483F-9CD3-17AF328B2782}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{13B205C7-147D-4CAC-B774-941552993FAE}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{D750C907-3AEA-4D05-8FA3-FCF5B2776973}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{EA7B3E95-9EE6-442C-B43C-F6192596CB74}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
